--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111404914</v>
+        <v>111405472</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,7 +713,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -732,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>564468.1590201143</v>
+        <v>564524.4037030815</v>
       </c>
       <c r="R2" t="n">
-        <v>6615756.803563487</v>
+        <v>6615811.324952397</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -767,7 +771,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -777,12 +781,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>60 plantor och flera blommor.</t>
+          <t>En blomma.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111407769</v>
+        <v>111405323</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -842,11 +846,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564530.9713830581</v>
+        <v>564521.8477020637</v>
       </c>
       <c r="R3" t="n">
-        <v>6615753.34056537</v>
+        <v>6615783.495059335</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
+          <t>Hundra plantor i mossan. Fyra blommor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111405420</v>
+        <v>111404914</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -975,11 +975,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -998,13 +994,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564512.6192034025</v>
+        <v>564468.1590201143</v>
       </c>
       <c r="R4" t="n">
-        <v>6615790.408539454</v>
+        <v>6615756.803563487</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1033,7 +1029,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1043,7 +1039,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>60 plantor och flera blommor.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1070,7 +1071,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111405323</v>
+        <v>111405082</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1103,7 +1104,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1122,10 +1127,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>564521.8477020637</v>
+        <v>564461.006485557</v>
       </c>
       <c r="R5" t="n">
-        <v>6615783.495059335</v>
+        <v>6615760.721820729</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1167,12 +1172,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Hundra plantor i mossan. Fyra blommor</t>
+          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1199,10 +1204,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111405158</v>
+        <v>111405420</v>
       </c>
       <c r="B6" t="n">
-        <v>95524</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1211,30 +1216,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221944</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1243,13 +1260,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>564459.9772311078</v>
+        <v>564512.6192034025</v>
       </c>
       <c r="R6" t="n">
-        <v>6615761.714472669</v>
+        <v>6615790.408539454</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1278,7 +1295,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1288,7 +1305,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1315,7 +1332,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111407346</v>
+        <v>111406144</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1350,7 +1367,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1371,10 +1388,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>564656.4028239732</v>
+        <v>564569.2468205031</v>
       </c>
       <c r="R7" t="n">
-        <v>6615816.131796785</v>
+        <v>6615734.803793807</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1406,7 +1423,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1416,12 +1433,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ca 80 plantor och 5 blommor</t>
+          <t>Ett sextioplantor och tio blommor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1448,10 +1465,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111405823</v>
+        <v>111405158</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>95524</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1460,42 +1477,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>221944</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1504,13 +1509,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>564551.2081450538</v>
+        <v>564459.9772311078</v>
       </c>
       <c r="R8" t="n">
-        <v>6615753.689971274</v>
+        <v>6615761.714472669</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1539,7 +1544,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1549,12 +1554,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:32</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Mer än 150 plantor i blåbärsriset</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111405082</v>
+        <v>111407346</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>564461.006485557</v>
+        <v>564656.4028239732</v>
       </c>
       <c r="R9" t="n">
-        <v>6615760.721820729</v>
+        <v>6615816.131796785</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
+          <t>Ca 80 plantor och 5 blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111406144</v>
+        <v>111407769</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>564569.2468205031</v>
+        <v>564530.9713830581</v>
       </c>
       <c r="R10" t="n">
-        <v>6615734.803793807</v>
+        <v>6615753.34056537</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ett sextioplantor och tio blommor</t>
+          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111405472</v>
+        <v>111405823</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>564524.4037030815</v>
+        <v>564551.2081450538</v>
       </c>
       <c r="R11" t="n">
-        <v>6615811.324952397</v>
+        <v>6615753.689971274</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>En blomma.</t>
+          <t>Mer än 150 plantor i blåbärsriset</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111405472</v>
+        <v>111406144</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>564524.4037030815</v>
+        <v>564569.2468205031</v>
       </c>
       <c r="R2" t="n">
-        <v>6615811.324952397</v>
+        <v>6615734.803793807</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>En blomma.</t>
+          <t>Ett sextioplantor och tio blommor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111405323</v>
+        <v>111405823</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,7 +846,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -865,13 +869,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564521.8477020637</v>
+        <v>564551.2081450538</v>
       </c>
       <c r="R3" t="n">
-        <v>6615783.495059335</v>
+        <v>6615753.689971274</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -900,7 +904,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -910,12 +914,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Hundra plantor i mossan. Fyra blommor</t>
+          <t>Mer än 150 plantor i blåbärsriset</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111404914</v>
+        <v>111405082</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -975,7 +979,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -994,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564468.1590201143</v>
+        <v>564461.006485557</v>
       </c>
       <c r="R4" t="n">
-        <v>6615756.803563487</v>
+        <v>6615760.721820729</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1029,7 +1037,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1039,12 +1047,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>60 plantor och flera blommor.</t>
+          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1071,7 +1079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111405082</v>
+        <v>111404914</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1104,11 +1112,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1127,10 +1131,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>564461.006485557</v>
+        <v>564468.1590201143</v>
       </c>
       <c r="R5" t="n">
-        <v>6615760.721820729</v>
+        <v>6615756.803563487</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1162,7 +1166,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1172,12 +1176,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
+          <t>60 plantor och flera blommor.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1204,7 +1208,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111405420</v>
+        <v>111405323</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1237,11 +1241,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>564512.6192034025</v>
+        <v>564521.8477020637</v>
       </c>
       <c r="R6" t="n">
-        <v>6615790.408539454</v>
+        <v>6615783.495059335</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1305,7 +1305,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Hundra plantor i mossan. Fyra blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1332,10 +1337,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111406144</v>
+        <v>111405158</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>95524</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1344,42 +1349,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221944</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1388,10 +1381,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>564569.2468205031</v>
+        <v>564459.9772311078</v>
       </c>
       <c r="R7" t="n">
-        <v>6615734.803793807</v>
+        <v>6615761.714472669</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1423,7 +1416,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1433,12 +1426,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:48</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ett sextioplantor och tio blommor</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1465,10 +1453,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111405158</v>
+        <v>111405420</v>
       </c>
       <c r="B8" t="n">
-        <v>95524</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1477,30 +1465,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221944</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>564459.9772311078</v>
+        <v>564512.6192034025</v>
       </c>
       <c r="R8" t="n">
-        <v>6615761.714472669</v>
+        <v>6615790.408539454</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111407346</v>
+        <v>111407769</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>564656.4028239732</v>
+        <v>564530.9713830581</v>
       </c>
       <c r="R9" t="n">
-        <v>6615816.131796785</v>
+        <v>6615753.34056537</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ca 80 plantor och 5 blommor</t>
+          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111407769</v>
+        <v>111405472</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1770,13 +1770,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>564530.9713830581</v>
+        <v>564524.4037030815</v>
       </c>
       <c r="R10" t="n">
-        <v>6615753.34056537</v>
+        <v>6615811.324952397</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
+          <t>En blomma.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111405823</v>
+        <v>111405594</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>564551.2081450538</v>
+        <v>564544.0294749426</v>
       </c>
       <c r="R11" t="n">
-        <v>6615753.689971274</v>
+        <v>6615788.424780905</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Mer än 150 plantor i blåbärsriset</t>
+          <t>Växer 5 m från planerad basväg.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111405594</v>
+        <v>111407346</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2036,13 +2036,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>564544.0294749426</v>
+        <v>564656.4028239732</v>
       </c>
       <c r="R12" t="n">
-        <v>6615788.424780905</v>
+        <v>6615816.131796785</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Växer 5 m från planerad basväg.</t>
+          <t>Ca 80 plantor och 5 blommor</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111406144</v>
+        <v>111405420</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>564569.2468205031</v>
+        <v>564512.6192034025</v>
       </c>
       <c r="R2" t="n">
-        <v>6615734.803793807</v>
+        <v>6615790.408539454</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -781,12 +781,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:48</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ett sextioplantor och tio blommor</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -813,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111405823</v>
+        <v>111405158</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>95524</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,42 +820,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>221944</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -869,13 +852,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564551.2081450538</v>
+        <v>564459.9772311078</v>
       </c>
       <c r="R3" t="n">
-        <v>6615753.689971274</v>
+        <v>6615761.714472669</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -904,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -914,12 +897,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:32</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Mer än 150 plantor i blåbärsriset</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111405082</v>
+        <v>111405323</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -979,11 +957,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1002,10 +976,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564461.006485557</v>
+        <v>564521.8477020637</v>
       </c>
       <c r="R4" t="n">
-        <v>6615760.721820729</v>
+        <v>6615783.495059335</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1037,7 +1011,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1047,12 +1021,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
+          <t>Hundra plantor i mossan. Fyra blommor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1079,7 +1053,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111404914</v>
+        <v>111405823</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1112,7 +1086,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1131,13 +1109,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>564468.1590201143</v>
+        <v>564551.2081450538</v>
       </c>
       <c r="R5" t="n">
-        <v>6615756.803563487</v>
+        <v>6615753.689971274</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1166,7 +1144,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1176,12 +1154,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>60 plantor och flera blommor.</t>
+          <t>Mer än 150 plantor i blåbärsriset</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1208,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111405323</v>
+        <v>111405082</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1241,7 +1219,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1260,10 +1242,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>564521.8477020637</v>
+        <v>564461.006485557</v>
       </c>
       <c r="R6" t="n">
-        <v>6615783.495059335</v>
+        <v>6615760.721820729</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1295,7 +1277,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1305,12 +1287,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Hundra plantor i mossan. Fyra blommor</t>
+          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1337,10 +1319,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111405158</v>
+        <v>111404914</v>
       </c>
       <c r="B7" t="n">
-        <v>95524</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1349,30 +1331,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221944</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1381,10 +1371,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>564459.9772311078</v>
+        <v>564468.1590201143</v>
       </c>
       <c r="R7" t="n">
-        <v>6615761.714472669</v>
+        <v>6615756.803563487</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1416,7 +1406,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1426,7 +1416,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>60 plantor och flera blommor.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1453,7 +1448,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111405420</v>
+        <v>111405594</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1488,7 +1483,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1509,13 +1504,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>564512.6192034025</v>
+        <v>564544.0294749426</v>
       </c>
       <c r="R8" t="n">
-        <v>6615790.408539454</v>
+        <v>6615788.424780905</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1544,7 +1539,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1554,7 +1549,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växer 5 m från planerad basväg.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111407769</v>
+        <v>111406144</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>564530.9713830581</v>
+        <v>564569.2468205031</v>
       </c>
       <c r="R9" t="n">
-        <v>6615753.34056537</v>
+        <v>6615734.803793807</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
+          <t>Ett sextioplantor och tio blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111405594</v>
+        <v>111407346</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>564544.0294749426</v>
+        <v>564656.4028239732</v>
       </c>
       <c r="R11" t="n">
-        <v>6615788.424780905</v>
+        <v>6615816.131796785</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer 5 m från planerad basväg.</t>
+          <t>Ca 80 plantor och 5 blommor</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111407346</v>
+        <v>111407769</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>564656.4028239732</v>
+        <v>564530.9713830581</v>
       </c>
       <c r="R12" t="n">
-        <v>6615816.131796785</v>
+        <v>6615753.34056537</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ca 80 plantor och 5 blommor</t>
+          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -808,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111405158</v>
+        <v>111407769</v>
       </c>
       <c r="B3" t="n">
-        <v>95524</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,30 +820,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221944</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -852,10 +864,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564459.9772311078</v>
+        <v>564530.9713830581</v>
       </c>
       <c r="R3" t="n">
-        <v>6615761.714472669</v>
+        <v>6615753.34056537</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -887,7 +899,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +909,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,7 +941,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111405323</v>
+        <v>111407346</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -957,7 +974,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -976,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564521.8477020637</v>
+        <v>564656.4028239732</v>
       </c>
       <c r="R4" t="n">
-        <v>6615783.495059335</v>
+        <v>6615816.131796785</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1011,7 +1032,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1021,12 +1042,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Hundra plantor i mossan. Fyra blommor</t>
+          <t>Ca 80 plantor och 5 blommor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1186,7 +1207,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111405082</v>
+        <v>111405323</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1219,11 +1240,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1242,10 +1259,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>564461.006485557</v>
+        <v>564521.8477020637</v>
       </c>
       <c r="R6" t="n">
-        <v>6615760.721820729</v>
+        <v>6615783.495059335</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1277,7 +1294,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1287,12 +1304,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
+          <t>Hundra plantor i mossan. Fyra blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1319,7 +1336,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111404914</v>
+        <v>111405594</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1369,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1371,13 +1392,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>564468.1590201143</v>
+        <v>564544.0294749426</v>
       </c>
       <c r="R7" t="n">
-        <v>6615756.803563487</v>
+        <v>6615788.424780905</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1406,7 +1427,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1416,12 +1437,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>60 plantor och flera blommor.</t>
+          <t>Växer 5 m från planerad basväg.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1448,7 +1469,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111405594</v>
+        <v>111405472</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1483,7 +1504,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1504,13 +1525,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>564544.0294749426</v>
+        <v>564524.4037030815</v>
       </c>
       <c r="R8" t="n">
-        <v>6615788.424780905</v>
+        <v>6615811.324952397</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1539,7 +1560,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1549,12 +1570,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Växer 5 m från planerad basväg.</t>
+          <t>En blomma.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1581,7 +1602,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111406144</v>
+        <v>111405082</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1637,10 +1658,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>564569.2468205031</v>
+        <v>564461.006485557</v>
       </c>
       <c r="R9" t="n">
-        <v>6615734.803793807</v>
+        <v>6615760.721820729</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1672,7 +1693,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1682,12 +1703,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ett sextioplantor och tio blommor</t>
+          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1714,10 +1735,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111405472</v>
+        <v>111405158</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>95524</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1726,42 +1747,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>221944</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1770,13 +1779,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>564524.4037030815</v>
+        <v>564459.9772311078</v>
       </c>
       <c r="R10" t="n">
-        <v>6615811.324952397</v>
+        <v>6615761.714472669</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1805,7 +1814,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1815,12 +1824,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:13</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>En blomma.</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1847,7 +1851,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111407346</v>
+        <v>111406144</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1903,10 +1907,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>564656.4028239732</v>
+        <v>564569.2468205031</v>
       </c>
       <c r="R11" t="n">
-        <v>6615816.131796785</v>
+        <v>6615734.803793807</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1938,7 +1942,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1948,12 +1952,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ca 80 plantor och 5 blommor</t>
+          <t>Ett sextioplantor och tio blommor</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1980,7 +1984,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111407769</v>
+        <v>111404914</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2013,11 +2017,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>564530.9713830581</v>
+        <v>564468.1590201143</v>
       </c>
       <c r="R12" t="n">
-        <v>6615753.34056537</v>
+        <v>6615756.803563487</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
+          <t>60 plantor och flera blommor.</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111405420</v>
+        <v>111406144</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>564512.6192034025</v>
+        <v>564569.2468205031</v>
       </c>
       <c r="R2" t="n">
-        <v>6615790.408539454</v>
+        <v>6615734.803793807</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -781,7 +781,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ett sextioplantor och tio blommor</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -808,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111407769</v>
+        <v>111405420</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -843,7 +848,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -864,13 +869,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564530.9713830581</v>
+        <v>564512.6192034025</v>
       </c>
       <c r="R3" t="n">
-        <v>6615753.34056537</v>
+        <v>6615790.408539454</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -899,7 +904,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -909,12 +914,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:08</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -941,7 +941,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111407346</v>
+        <v>111404914</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,11 +974,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -997,10 +993,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564656.4028239732</v>
+        <v>564468.1590201143</v>
       </c>
       <c r="R4" t="n">
-        <v>6615816.131796785</v>
+        <v>6615756.803563487</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1032,7 +1028,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1042,12 +1038,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ca 80 plantor och 5 blommor</t>
+          <t>60 plantor och flera blommor.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1074,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111405823</v>
+        <v>111405158</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>95524</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,42 +1082,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>221944</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1130,13 +1114,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>564551.2081450538</v>
+        <v>564459.9772311078</v>
       </c>
       <c r="R5" t="n">
-        <v>6615753.689971274</v>
+        <v>6615761.714472669</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1165,7 +1149,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1175,12 +1159,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:32</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Mer än 150 plantor i blåbärsriset</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1207,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111405323</v>
+        <v>111407346</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1240,7 +1219,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1259,10 +1242,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>564521.8477020637</v>
+        <v>564656.4028239732</v>
       </c>
       <c r="R6" t="n">
-        <v>6615783.495059335</v>
+        <v>6615816.131796785</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1294,7 +1277,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1304,12 +1287,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Hundra plantor i mossan. Fyra blommor</t>
+          <t>Ca 80 plantor och 5 blommor</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1336,7 +1319,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111405594</v>
+        <v>111405082</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1392,13 +1375,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>564544.0294749426</v>
+        <v>564461.006485557</v>
       </c>
       <c r="R7" t="n">
-        <v>6615788.424780905</v>
+        <v>6615760.721820729</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1427,7 +1410,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1437,12 +1420,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Växer 5 m från planerad basväg.</t>
+          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1469,7 +1452,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111405472</v>
+        <v>111405594</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1504,7 +1487,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1525,13 +1508,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>564524.4037030815</v>
+        <v>564544.0294749426</v>
       </c>
       <c r="R8" t="n">
-        <v>6615811.324952397</v>
+        <v>6615788.424780905</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1560,7 +1543,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1570,12 +1553,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>En blomma.</t>
+          <t>Växer 5 m från planerad basväg.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1602,7 +1585,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111405082</v>
+        <v>111405823</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1637,7 +1620,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1658,13 +1641,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>564461.006485557</v>
+        <v>564551.2081450538</v>
       </c>
       <c r="R9" t="n">
-        <v>6615760.721820729</v>
+        <v>6615753.689971274</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1693,7 +1676,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1703,12 +1686,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ett femtiotal knärotsplantor. Tre blommor</t>
+          <t>Mer än 150 plantor i blåbärsriset</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1735,10 +1718,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111405158</v>
+        <v>111405472</v>
       </c>
       <c r="B10" t="n">
-        <v>95524</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1747,30 +1730,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221944</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1779,13 +1774,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>564459.9772311078</v>
+        <v>564524.4037030815</v>
       </c>
       <c r="R10" t="n">
-        <v>6615761.714472669</v>
+        <v>6615811.324952397</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1814,7 +1809,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1824,7 +1819,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:13</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>En blomma.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1851,7 +1851,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111406144</v>
+        <v>111407769</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>564569.2468205031</v>
+        <v>564530.9713830581</v>
       </c>
       <c r="R11" t="n">
-        <v>6615734.803793807</v>
+        <v>6615753.34056537</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ett sextioplantor och tio blommor</t>
+          <t>Ett tjugotal plantor och tre blommor fem meter från planerad basväg.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111404914</v>
+        <v>111405323</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>564468.1590201143</v>
+        <v>564521.8477020637</v>
       </c>
       <c r="R12" t="n">
-        <v>6615756.803563487</v>
+        <v>6615783.495059335</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>60 plantor och flera blommor.</t>
+          <t>Hundra plantor i mossan. Fyra blommor</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2111,6 +2111,272 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111845306</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Brinken, SV (mellrsta) (knärot), Vstm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>564522</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6615783</v>
+      </c>
+      <c r="S13" t="n">
+        <v>75</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sura</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>U-Sur-0535</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>X: (7) 30 pl, A: 186/320 (5), 7 pl, 1 bl, B. 183/292 (4), 100 pl, 4 bl, C:205/297 (0)50 pl (5 m från tänkt basväg)</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Bo Eriksson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111845440</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Brinken, SV, (mellersta, syd) (knärot), Vstm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>564551</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6615754</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sura</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>U-Sur-0536</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>X. (7), 150 pl, A: 192/262 (4), 20 pl, 3 bl, (5 m från tänkt basväg B: 2307243 (4), 60 pl, 10 bl.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Bo Eriksson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35620-2023.xlsx
+++ b/artfynd/A 35620-2023.xlsx
@@ -2116,7 +2116,7 @@
         <v>111845306</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>111845440</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
